--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\학교\졸작\팀 아이덴티티\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B8AA56-A7F2-465D-9ADA-115702D622B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3FBC57-3F09-4921-80B5-D877BA5273A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
+    <workbookView xWindow="2295" yWindow="1410" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s_krName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,6 +630,19 @@
   </si>
   <si>
     <t>PlayerSilenceAction</t>
+  </si>
+  <si>
+    <t>PlayerDrawCardAction</t>
+  </si>
+  <si>
+    <t>PlayerCallTransitionAction</t>
+  </si>
+  <si>
+    <t>PlayerCallSlowAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGroundPowerAttackAction</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75A5ED-FB39-4147-B10D-8FEAFDC8B52C}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1448,10 +1457,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
         <v>118</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1459,10 +1468,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1470,10 +1479,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1529,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1540,7 +1549,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1551,7 +1560,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,7 +1582,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,7 +1593,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,7 +1615,7 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,7 +1626,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1628,7 +1637,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,7 +1648,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1650,7 +1659,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +1720,7 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1722,7 +1731,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1733,7 +1742,7 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1744,7 +1753,7 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1755,7 +1764,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1766,7 +1775,7 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1777,7 +1786,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1788,7 +1797,7 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1799,7 +1808,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1810,7 +1819,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1821,7 +1830,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1832,7 +1841,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1843,7 +1852,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1854,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1865,7 +1874,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E753C-6524-4C6B-A4E5-ABF95E8D22E8}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1893,7 +1904,7 @@
     <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -1906,10 +1917,10 @@
         <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>101</v>
@@ -1933,13 +1944,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -1965,13 +1976,13 @@
         <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>46</v>
@@ -1997,13 +2008,13 @@
         <v>302</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>47</v>
@@ -2029,13 +2040,13 @@
         <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -2047,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -2061,13 +2072,13 @@
         <v>304</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -2079,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" s="1">
         <v>60</v>
@@ -2093,13 +2104,13 @@
         <v>305</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -2111,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -2125,13 +2136,13 @@
         <v>306</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -2143,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
@@ -2157,13 +2168,13 @@
         <v>307</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -2175,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -2189,7 +2200,7 @@
         <v>308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -2207,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="I10" s="1">
         <v>5</v>
@@ -2221,13 +2232,13 @@
         <v>309</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
@@ -2239,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
@@ -2253,13 +2264,13 @@
         <v>310</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>46</v>
@@ -2271,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="I12" s="4">
         <v>200</v>

--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\졸작\팀 아이덴티티\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3FBC57-3F09-4921-80B5-D877BA5273A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52223872-336C-4A52-9D0D-00DAF0D9F76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1410" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="189">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -643,6 +643,130 @@
   </si>
   <si>
     <t>PlayerGroundPowerAttackAction</t>
+  </si>
+  <si>
+    <t>백스탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 모든 행동을 취소하고 뒤로 회피합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 체력을 _ 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 너무좋아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 내의 적을 모두 슬라임으로 변이 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ 초간 무적을 얻습니다. 무적상태가 끝나면 범위 내의 적에게 공격받은 데미지 만큼 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 범위 내의 적에게 _의 데미지를 주고, _초 동안 스턴시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 적에게 _ 의 데미지를 이번 맵에서 카드를 사용한 개수만큼 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패 타격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 내의 적에게 현재 방어도 만큼의 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 적에게 이동하여 _의 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_의 방어도를 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무작위 범위에 _의 데미지를 주는 번개를 _회 소환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EverybodySlime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardUseAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShuildAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShuildUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -720,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +858,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1130,13 +1257,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1147,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1158,7 +1285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1169,7 +1296,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1180,7 +1307,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1191,7 +1318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1202,7 +1329,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1213,7 +1340,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1224,7 +1351,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1235,7 +1362,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1246,7 +1373,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1257,7 +1384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1268,7 +1395,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1279,7 +1406,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -1290,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1301,7 +1428,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1312,7 +1439,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1323,7 +1450,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1334,7 +1461,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1345,7 +1472,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1356,7 +1483,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1367,7 +1494,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1378,7 +1505,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1389,7 +1516,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1400,7 +1527,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1411,7 +1538,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1422,7 +1549,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1433,7 +1560,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1444,7 +1571,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1455,7 +1582,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1466,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -1477,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -1503,12 +1630,12 @@
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="47.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1530,7 +1657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>101</v>
       </c>
@@ -1541,7 +1668,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>102</v>
       </c>
@@ -1552,7 +1679,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>103</v>
       </c>
@@ -1563,7 +1690,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>104</v>
       </c>
@@ -1574,7 +1701,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>105</v>
       </c>
@@ -1585,7 +1712,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>106</v>
       </c>
@@ -1596,7 +1723,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>107</v>
       </c>
@@ -1607,7 +1734,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>108</v>
       </c>
@@ -1618,7 +1745,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>109</v>
       </c>
@@ -1629,7 +1756,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>110</v>
       </c>
@@ -1640,7 +1767,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>111</v>
       </c>
@@ -1651,7 +1778,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>112</v>
       </c>
@@ -1685,12 +1812,12 @@
       <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1712,7 +1839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>201</v>
       </c>
@@ -1723,7 +1850,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>202</v>
       </c>
@@ -1734,7 +1861,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>203</v>
       </c>
@@ -1745,7 +1872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>204</v>
       </c>
@@ -1756,7 +1883,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>205</v>
       </c>
@@ -1767,7 +1894,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>206</v>
       </c>
@@ -1778,7 +1905,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>207</v>
       </c>
@@ -1789,7 +1916,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>208</v>
       </c>
@@ -1800,7 +1927,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>209</v>
       </c>
@@ -1811,7 +1938,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>210</v>
       </c>
@@ -1822,7 +1949,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>211</v>
       </c>
@@ -1833,7 +1960,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>212</v>
       </c>
@@ -1844,7 +1971,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>213</v>
       </c>
@@ -1855,7 +1982,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>214</v>
       </c>
@@ -1866,7 +1993,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>215</v>
       </c>
@@ -1891,25 +2018,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E753C-6524-4C6B-A4E5-ABF95E8D22E8}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1934,12 +2059,12 @@
       <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1971,7 +2096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>301</v>
       </c>
@@ -2003,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>302</v>
       </c>
@@ -2035,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>303</v>
       </c>
@@ -2067,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>304</v>
       </c>
@@ -2099,7 +2224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>305</v>
       </c>
@@ -2131,7 +2256,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>306</v>
       </c>
@@ -2163,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>307</v>
       </c>
@@ -2195,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>308</v>
       </c>
@@ -2227,7 +2352,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>309</v>
       </c>
@@ -2259,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A12" s="4">
         <v>310</v>
       </c>
@@ -2288,6 +2413,306 @@
         <v>200</v>
       </c>
       <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A13" s="4">
+        <v>311</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A14" s="4">
+        <v>312</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>50</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A15" s="4">
+        <v>313</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
+        <v>100</v>
+      </c>
+      <c r="J15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A16" s="4">
+        <v>314</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A17" s="4">
+        <v>315</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <v>50</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A18" s="4">
+        <v>316</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A19" s="4">
+        <v>317</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A20" s="4">
+        <v>318</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>100</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A21" s="4">
+        <v>319</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <v>30</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A22" s="4">
+        <v>320</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>150</v>
+      </c>
+      <c r="J22" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2315,12 +2740,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2329,7 +2748,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010015C4E6E158ECAA418C6B952D1FB9372F" ma:contentTypeVersion="7" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4bbe8cf3ddc823bb2b9b04ca0b6d785f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ba0c99f-4851-42f8-a44c-096a750684f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76ccdb2f795e672dc5e711efdcf336c8" ns2:_="">
     <xsd:import namespace="0ba0c99f-4851-42f8-a44c-096a750684f0"/>
@@ -2493,16 +2912,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2510,7 +2926,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA77AE4-4BF9-49E4-9E51-356D8E79B84B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2526,4 +2942,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\졸작\팀 아이덴티티\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52223872-336C-4A52-9D0D-00DAF0D9F76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA2159-5CC0-4E77-98D5-3F4DF6842958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
+    <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,6 +766,18 @@
   </si>
   <si>
     <t>Storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_ParameterCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 파라미터 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_IsVariable[2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +882,25 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1257,13 +1287,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1274,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1285,7 +1315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1296,7 +1326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1307,7 +1337,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1318,7 +1348,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1329,7 +1359,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1340,7 +1370,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1351,7 +1381,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1362,7 +1392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1373,7 +1403,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1384,7 +1414,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1395,7 +1425,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1406,7 +1436,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -1417,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1428,7 +1458,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1439,7 +1469,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1450,7 +1480,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1461,7 +1491,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1472,7 +1502,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1483,7 +1513,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1494,7 +1524,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1505,7 +1535,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1516,7 +1546,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1527,7 +1557,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1538,7 +1568,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1549,7 +1579,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1560,7 +1590,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1571,7 +1601,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1582,7 +1612,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1593,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -1604,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -1630,12 +1660,12 @@
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="47.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1657,7 +1687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101</v>
       </c>
@@ -1668,7 +1698,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>102</v>
       </c>
@@ -1679,7 +1709,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>103</v>
       </c>
@@ -1690,7 +1720,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>104</v>
       </c>
@@ -1701,7 +1731,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -1712,7 +1742,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -1723,7 +1753,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>107</v>
       </c>
@@ -1734,7 +1764,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>108</v>
       </c>
@@ -1745,7 +1775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>109</v>
       </c>
@@ -1756,7 +1786,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>110</v>
       </c>
@@ -1767,7 +1797,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>111</v>
       </c>
@@ -1778,7 +1808,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>112</v>
       </c>
@@ -1795,7 +1825,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1812,12 +1842,12 @@
       <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1839,7 +1869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201</v>
       </c>
@@ -1850,7 +1880,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>202</v>
       </c>
@@ -1861,7 +1891,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>203</v>
       </c>
@@ -1872,7 +1902,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>204</v>
       </c>
@@ -1883,7 +1913,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>205</v>
       </c>
@@ -1894,7 +1924,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>206</v>
       </c>
@@ -1905,7 +1935,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>207</v>
       </c>
@@ -1916,7 +1946,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>208</v>
       </c>
@@ -1927,7 +1957,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>209</v>
       </c>
@@ -1938,7 +1968,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>210</v>
       </c>
@@ -1949,7 +1979,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>211</v>
       </c>
@@ -1960,7 +1990,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>212</v>
       </c>
@@ -1971,7 +2001,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>213</v>
       </c>
@@ -1982,7 +2012,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>214</v>
       </c>
@@ -1993,7 +2023,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>215</v>
       </c>
@@ -2007,7 +2037,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2018,11 +2048,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E753C-6524-4C6B-A4E5-ABF95E8D22E8}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
@@ -2030,11 +2062,14 @@
     <col min="5" max="5" width="87.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2059,12 +2094,19 @@
       <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2090,13 +2132,22 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>301</v>
       </c>
@@ -2116,19 +2167,28 @@
         <v>90</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>80</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>302</v>
       </c>
@@ -2148,19 +2208,28 @@
         <v>91</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>50</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>303</v>
       </c>
@@ -2180,19 +2249,28 @@
         <v>92</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>100</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>304</v>
       </c>
@@ -2212,19 +2290,28 @@
         <v>93</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
         <v>60</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>305</v>
       </c>
@@ -2244,19 +2331,28 @@
         <v>94</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>151</v>
       </c>
       <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="L7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>306</v>
       </c>
@@ -2276,19 +2372,28 @@
         <v>95</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>153</v>
       </c>
       <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>307</v>
       </c>
@@ -2308,7 +2413,7 @@
         <v>96</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>155</v>
@@ -2319,8 +2424,17 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>308</v>
       </c>
@@ -2340,19 +2454,28 @@
         <v>97</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>156</v>
       </c>
       <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
         <v>5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="L10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>309</v>
       </c>
@@ -2372,19 +2495,28 @@
         <v>98</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>154</v>
       </c>
       <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>310</v>
       </c>
@@ -2404,19 +2536,28 @@
         <v>99</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>157</v>
       </c>
       <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
         <v>200</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>311</v>
       </c>
@@ -2440,13 +2581,22 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
         <v>3</v>
       </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>312</v>
       </c>
@@ -2470,13 +2620,22 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
         <v>50</v>
       </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>313</v>
       </c>
@@ -2500,13 +2659,22 @@
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
         <v>100</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="L15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>314</v>
       </c>
@@ -2535,8 +2703,17 @@
       <c r="J16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>315</v>
       </c>
@@ -2560,13 +2737,22 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
         <v>50</v>
       </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>316</v>
       </c>
@@ -2590,13 +2776,22 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
         <v>3</v>
       </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>317</v>
       </c>
@@ -2622,11 +2817,20 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>318</v>
       </c>
@@ -2650,13 +2854,22 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
         <v>100</v>
       </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>319</v>
       </c>
@@ -2680,13 +2893,22 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
         <v>30</v>
       </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>320</v>
       </c>
@@ -2710,28 +2932,43 @@
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
         <v>150</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K11">
     <sortCondition ref="A3:A11"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="I1:J1"/>
+  <mergeCells count="2">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:J1 A2 C2:J2 A3:J1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A1:K1 A2 C2:K2 A3:K1048576">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:M1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A2&lt;&gt;""</formula>
+      <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2740,12 +2977,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2913,15 +3147,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2945,10 +3183,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOW2_400_204\Desktop\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA2159-5CC0-4E77-98D5-3F4DF6842958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
+    <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="AbilityTable" sheetId="3" r:id="rId3"/>
     <sheet name="CardTable" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="204">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,14 +644,6 @@
     <t>PlayerGroundPowerAttackAction</t>
   </si>
   <si>
-    <t>백스탭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어의 모든 행동을 취소하고 뒤로 회피합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,10 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BackStep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Heal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,34 +744,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_ParameterCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 파라미터 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_IsVariable[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_thunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_everybody_slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_card_card_use_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_card_counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_shuild_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_shuild_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerHealAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerShuildUpAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ShuildUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assassin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_ParameterCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 파라미터 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_IsVariable[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>PlayerAssassinAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerThunterAction</t>
+  </si>
+  <si>
+    <t>PlayerEverybodySlimeAction</t>
+  </si>
+  <si>
+    <t>PlayerShuildAttackAction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -882,25 +926,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border>
         <left style="thin">
@@ -1282,10 +1308,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75A5ED-FB39-4147-B10D-8FEAFDC8B52C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1653,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D22343-9645-4D28-A576-D6EA3C2916DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1820,12 +1848,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B20">
+  <sortState ref="B3:B20">
     <sortCondition ref="B3:B20"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1835,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC681EA-4A23-4724-98CE-EDABF75CE8C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2037,7 +2065,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2047,12 +2075,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E753C-6524-4C6B-A4E5-ABF95E8D22E8}">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2095,14 +2121,14 @@
         <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M1" s="6"/>
     </row>
@@ -2132,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -2562,7 +2588,7 @@
         <v>311</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>158</v>
@@ -2574,17 +2600,19 @@
         <v>159</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -2601,35 +2629,37 @@
         <v>312</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s">
         <v>160</v>
       </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="I14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>50</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="M14" s="1" t="b">
         <v>0</v>
@@ -2640,32 +2670,34 @@
         <v>313</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>169</v>
+        <v>179</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1" t="b">
         <v>0</v>
@@ -2679,35 +2711,35 @@
         <v>314</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
       </c>
       <c r="L16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1" t="b">
         <v>0</v>
@@ -2718,29 +2750,29 @@
         <v>315</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -2757,31 +2789,33 @@
         <v>316</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="I18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>3</v>
-      </c>
-      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="1" t="b">
@@ -2796,35 +2830,37 @@
         <v>317</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1" t="b">
         <v>0</v>
@@ -2834,30 +2870,32 @@
       <c r="A20" s="4">
         <v>318</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>187</v>
+      <c r="B20" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="I20" s="4">
         <v>1</v>
       </c>
       <c r="J20" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K20" s="5">
         <v>0</v>
@@ -2874,7 +2912,7 @@
         <v>319</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>175</v>
@@ -2886,69 +2924,30 @@
         <v>176</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>150</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J21" s="4">
-        <v>30</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="M21" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>320</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>150</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K11">
+  <sortState ref="A3:K11">
     <sortCondition ref="A3:A11"/>
   </sortState>
   <mergeCells count="2">
@@ -2956,19 +2955,14 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:K1 A2 C2:K2 A3:K1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A1:K1 A2 C2:K2 L1:M1048576 A3:K1048576">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:M1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2977,9 +2971,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3147,19 +3144,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3183,9 +3176,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -2971,12 +2971,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3144,15 +3141,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3176,10 +3177,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="204">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,14 +776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/Card/card_card_card_use_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Card/card_card_counter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprites/Card/card_shuild_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -823,6 +815,14 @@
   </si>
   <si>
     <t>PlayerShuildAttackAction</t>
+  </si>
+  <si>
+    <t>Sprites/Card/card_card_use_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2606,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
@@ -2688,7 +2688,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -2723,12 +2723,14 @@
         <v>168</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="I16" s="4">
         <v>1</v>
       </c>
@@ -2762,12 +2764,14 @@
         <v>165</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
@@ -2801,13 +2805,13 @@
         <v>170</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -2842,13 +2846,13 @@
         <v>172</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -2871,7 +2875,7 @@
         <v>318</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>173</v>
@@ -2883,13 +2887,13 @@
         <v>174</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -2924,12 +2928,14 @@
         <v>176</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4"/>
       <c r="I21" s="4">
         <v>2</v>
       </c>
@@ -2971,9 +2977,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3141,19 +3150,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3177,9 +3182,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOW2_400_204\Desktop\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2DEA7-1105-4305-BD16-88337D6BCB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="3"/>
+    <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -22,20 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="215">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -822,13 +815,57 @@
   </si>
   <si>
     <t>Sprites/Card/card_counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardRangeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_PlayerRelativeCircularSector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_PointCircularSector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardRangeType_RangeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 파라미터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_RangeParameter[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라미터 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라미터 0 : angle, 1 : distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_CardRangeSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 스프라이트 이미지 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -860,7 +897,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -894,13 +931,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,11 +968,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1308,17 +1426,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,6 +1790,48 @@
       </c>
       <c r="C32">
         <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1848,12 +2009,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:B20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B20">
     <sortCondition ref="B3:B20"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1863,7 +2024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2065,7 +2226,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2075,10 +2236,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2093,9 +2256,12 @@
     <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
     <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2131,8 +2297,19 @@
         <v>187</v>
       </c>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2172,8 +2349,19 @@
       <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>301</v>
       </c>
@@ -2213,8 +2401,21 @@
       <c r="M3" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="12"/>
+      <c r="O3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P3">
+        <v>160</v>
+      </c>
+      <c r="Q3">
+        <v>1.8</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>302</v>
       </c>
@@ -2254,8 +2455,15 @@
       <c r="M4" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="12"/>
+      <c r="O4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>303</v>
       </c>
@@ -2295,8 +2503,15 @@
       <c r="M5" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>304</v>
       </c>
@@ -2336,8 +2551,15 @@
       <c r="M6" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="12"/>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>305</v>
       </c>
@@ -2377,8 +2599,15 @@
       <c r="M7" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="12"/>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>306</v>
       </c>
@@ -2418,8 +2647,15 @@
       <c r="M8" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="12"/>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>307</v>
       </c>
@@ -2459,8 +2695,15 @@
       <c r="M9" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="12"/>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>308</v>
       </c>
@@ -2500,8 +2743,15 @@
       <c r="M10" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="12"/>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>309</v>
       </c>
@@ -2541,8 +2791,15 @@
       <c r="M11" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="12"/>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>310</v>
       </c>
@@ -2582,8 +2839,21 @@
       <c r="M12" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="12"/>
+      <c r="O12" t="s">
+        <v>205</v>
+      </c>
+      <c r="P12">
+        <v>90</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>311</v>
       </c>
@@ -2623,8 +2893,15 @@
       <c r="M13" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="12"/>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>312</v>
       </c>
@@ -2664,8 +2941,21 @@
       <c r="M14" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="12"/>
+      <c r="O14" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14">
+        <v>360</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>313</v>
       </c>
@@ -2705,8 +2995,15 @@
       <c r="M15" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="12"/>
+      <c r="O15" t="s">
+        <v>205</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>314</v>
       </c>
@@ -2746,8 +3043,15 @@
       <c r="M16" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="12"/>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>315</v>
       </c>
@@ -2787,8 +3091,15 @@
       <c r="M17" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="12"/>
+      <c r="O17" t="s">
+        <v>205</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>316</v>
       </c>
@@ -2828,8 +3139,15 @@
       <c r="M18" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="12"/>
+      <c r="O18" t="s">
+        <v>205</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>317</v>
       </c>
@@ -2869,8 +3187,15 @@
       <c r="M19" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="12"/>
+      <c r="O19" t="s">
+        <v>89</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>318</v>
       </c>
@@ -2910,8 +3235,15 @@
       <c r="M20" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="12"/>
+      <c r="O20" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>319</v>
       </c>
@@ -2951,24 +3283,48 @@
       <c r="M21" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N21" s="12"/>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:K11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K11">
     <sortCondition ref="A3:A11"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:K1 A2 C2:K2 L1:M1048576 A3:K1048576">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A2 L1:N1048576 A1:K1 C2:K2 A3:K1048576 P1">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O21">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:R21">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2977,12 +3333,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3150,15 +3503,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3182,10 +3539,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2DEA7-1105-4305-BD16-88337D6BCB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D37C477-88C9-4899-A6B6-A4A964771BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="216">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -859,6 +859,10 @@
   </si>
   <si>
     <t>범위 스프라이트 이미지 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,6 +969,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,12 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2239,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2289,25 +2293,25 @@
       <c r="I1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="11" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="6" t="s">
         <v>213</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2355,11 +2359,11 @@
       <c r="O2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -2401,7 +2405,9 @@
       <c r="M3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N3" s="12"/>
+      <c r="N3" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O3" t="s">
         <v>205</v>
       </c>
@@ -2455,9 +2461,17 @@
       <c r="M4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O4" t="s">
         <v>89</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2503,9 +2517,17 @@
       <c r="M5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O5" t="s">
         <v>89</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2551,9 +2573,17 @@
       <c r="M6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O6" t="s">
         <v>89</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2599,9 +2629,17 @@
       <c r="M7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O7" t="s">
         <v>89</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2647,9 +2685,17 @@
       <c r="M8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O8" t="s">
         <v>89</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2695,9 +2741,17 @@
       <c r="M9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O9" t="s">
         <v>89</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2743,9 +2797,17 @@
       <c r="M10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O10" t="s">
         <v>89</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2791,9 +2853,17 @@
       <c r="M11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O11" t="s">
         <v>89</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2839,7 +2909,9 @@
       <c r="M12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O12" t="s">
         <v>205</v>
       </c>
@@ -2893,9 +2965,17 @@
       <c r="M13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N13" s="12"/>
+      <c r="N13" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O13" t="s">
         <v>89</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2941,7 +3021,9 @@
       <c r="M14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N14" s="12"/>
+      <c r="N14" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O14" t="s">
         <v>206</v>
       </c>
@@ -2995,9 +3077,17 @@
       <c r="M15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N15" s="12"/>
+      <c r="N15" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O15" t="s">
         <v>205</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -3043,9 +3133,17 @@
       <c r="M16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N16" s="12"/>
+      <c r="N16" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O16" t="s">
         <v>89</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3091,9 +3189,17 @@
       <c r="M17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N17" s="12"/>
+      <c r="N17" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O17" t="s">
         <v>205</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3139,9 +3245,17 @@
       <c r="M18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N18" s="12"/>
+      <c r="N18" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O18" t="s">
         <v>205</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -3187,9 +3301,17 @@
       <c r="M19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N19" s="12"/>
+      <c r="N19" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O19" t="s">
         <v>89</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -3235,9 +3357,17 @@
       <c r="M20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N20" s="12"/>
+      <c r="N20" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O20" t="s">
         <v>89</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -3283,9 +3413,17 @@
       <c r="M21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N21" s="12"/>
+      <c r="N21" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="O21" t="s">
         <v>89</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -3302,7 +3440,7 @@
     <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2 L1:N1048576 A1:K1 C2:K2 A3:K1048576 P1">
+  <conditionalFormatting sqref="A2 A1:K1 C2:K2 A3:K1048576 P1 L1:N1048576">
     <cfRule type="expression" dxfId="4" priority="7">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
@@ -3333,9 +3471,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3503,19 +3644,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3539,9 +3676,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D37C477-88C9-4899-A6B6-A4A964771BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECDD541-6694-4388-9D49-9FCE25E4134B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="218">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -838,14 +838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범위 파라미터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_RangeParameter[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파라미터 x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,6 +855,22 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Range/powerattack_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Range/groundpowerattack_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Range/everybodyslime_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Range/counter_range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -935,22 +943,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,59 +977,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <border>
         <left style="thin">
@@ -1807,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1821,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1835,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +1969,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2230,7 +2181,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2241,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2260,12 +2211,11 @@
     <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
     <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2302,18 +2252,13 @@
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2354,18 +2299,13 @@
         <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>301</v>
       </c>
@@ -2406,22 +2346,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O3" t="s">
         <v>205</v>
       </c>
-      <c r="P3">
-        <v>160</v>
-      </c>
-      <c r="Q3">
-        <v>1.8</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>302</v>
       </c>
@@ -2462,22 +2393,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O4" t="s">
         <v>89</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>303</v>
       </c>
@@ -2518,22 +2440,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O5" t="s">
         <v>89</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>304</v>
       </c>
@@ -2574,22 +2487,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O6" t="s">
         <v>89</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>305</v>
       </c>
@@ -2630,22 +2534,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O7" t="s">
         <v>89</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>306</v>
       </c>
@@ -2686,22 +2581,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O8" t="s">
         <v>89</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>307</v>
       </c>
@@ -2742,22 +2628,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O9" t="s">
         <v>89</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>308</v>
       </c>
@@ -2798,22 +2675,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O10" t="s">
         <v>89</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>309</v>
       </c>
@@ -2854,22 +2722,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O11" t="s">
         <v>89</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>310</v>
       </c>
@@ -2915,17 +2774,8 @@
       <c r="O12" t="s">
         <v>205</v>
       </c>
-      <c r="P12">
-        <v>90</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>311</v>
       </c>
@@ -2966,22 +2816,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O13" t="s">
         <v>89</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>312</v>
       </c>
@@ -3022,22 +2863,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O14" t="s">
         <v>206</v>
       </c>
-      <c r="P14">
-        <v>360</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>313</v>
       </c>
@@ -3078,22 +2910,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O15" t="s">
         <v>205</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>314</v>
       </c>
@@ -3134,22 +2957,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O16" t="s">
         <v>89</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>315</v>
       </c>
@@ -3190,22 +3004,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O17" t="s">
         <v>205</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>316</v>
       </c>
@@ -3246,22 +3051,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s">
         <v>205</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>317</v>
       </c>
@@ -3302,22 +3098,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O19" t="s">
         <v>89</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>318</v>
       </c>
@@ -3358,22 +3145,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s">
         <v>89</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>319</v>
       </c>
@@ -3414,55 +3192,34 @@
         <v>0</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
         <v>89</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K11">
     <sortCondition ref="A3:A11"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2 A1:K1 C2:K2 A3:K1048576 P1 L1:N1048576">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="A2 A1:K1 C2:K2 A3:K1048576 L1:N1048576">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O21">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$A2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:R21">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\졸작\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECDD541-6694-4388-9D49-9FCE25E4134B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0979C2-5505-4304-9585-EA197296EB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="220">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,6 +871,14 @@
   </si>
   <si>
     <t>Sprites/Range/counter_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerNoneAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Range/thunter_range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,14 +1396,14 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1417,7 +1425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1428,7 +1436,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1439,7 +1447,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1450,7 +1458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1461,7 +1469,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1483,7 +1491,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1494,7 +1502,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1505,7 +1513,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1516,7 +1524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1527,7 +1535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1538,7 +1546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -1549,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1560,7 +1568,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1571,7 +1579,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1582,7 +1590,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1593,7 +1601,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1604,7 +1612,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1626,7 +1634,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1637,7 +1645,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1648,7 +1656,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1670,7 +1678,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1681,7 +1689,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1692,7 +1700,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1703,7 +1711,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1714,7 +1722,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1725,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -1736,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -1747,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>204</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -1775,7 +1783,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -1804,12 +1812,12 @@
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="47.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>101</v>
       </c>
@@ -1842,7 +1850,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>102</v>
       </c>
@@ -1853,7 +1861,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>103</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>104</v>
       </c>
@@ -1875,7 +1883,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>105</v>
       </c>
@@ -1886,7 +1894,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>106</v>
       </c>
@@ -1897,7 +1905,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>107</v>
       </c>
@@ -1908,7 +1916,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>108</v>
       </c>
@@ -1919,7 +1927,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>109</v>
       </c>
@@ -1930,7 +1938,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>110</v>
       </c>
@@ -1941,7 +1949,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>111</v>
       </c>
@@ -1952,7 +1960,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>112</v>
       </c>
@@ -1986,12 +1994,12 @@
       <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +2010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2013,7 +2021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>201</v>
       </c>
@@ -2024,7 +2032,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>202</v>
       </c>
@@ -2035,7 +2043,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>203</v>
       </c>
@@ -2046,7 +2054,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>204</v>
       </c>
@@ -2057,7 +2065,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>205</v>
       </c>
@@ -2068,7 +2076,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>206</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>207</v>
       </c>
@@ -2090,7 +2098,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>208</v>
       </c>
@@ -2101,7 +2109,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>209</v>
       </c>
@@ -2112,7 +2120,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>210</v>
       </c>
@@ -2123,7 +2131,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>211</v>
       </c>
@@ -2134,7 +2142,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>212</v>
       </c>
@@ -2145,7 +2153,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>213</v>
       </c>
@@ -2156,7 +2164,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>214</v>
       </c>
@@ -2167,7 +2175,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>215</v>
       </c>
@@ -2194,11 +2202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
@@ -2215,7 +2221,7 @@
     <col min="15" max="15" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>301</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>302</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>303</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>304</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>305</v>
       </c>
@@ -2540,7 +2546,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>306</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>307</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>308</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>309</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A12" s="4">
         <v>310</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A13" s="4">
         <v>311</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A14" s="4">
         <v>312</v>
       </c>
@@ -2863,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A15" s="4">
         <v>313</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A16" s="4">
         <v>314</v>
       </c>
@@ -2936,10 +2942,10 @@
         <v>202</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
@@ -2963,7 +2969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A17" s="4">
         <v>315</v>
       </c>
@@ -2983,10 +2989,10 @@
         <v>203</v>
       </c>
       <c r="G17" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -3010,7 +3016,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A18" s="4">
         <v>316</v>
       </c>
@@ -3051,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A19" s="4">
         <v>317</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A20" s="4">
         <v>318</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A21" s="4">
         <v>319</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>

--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\졸작\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0979C2-5505-4304-9585-EA197296EB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65985E2-E2A4-4703-8DB7-28303DA7875C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="220">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -838,14 +838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파라미터 x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파라미터 0 : angle, 1 : distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s_CardRangeSprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,6 +871,14 @@
   </si>
   <si>
     <t>Sprites/Range/thunter_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_PlayerRelativeCircle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_PointCircle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1390,20 +1390,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>204</v>
       </c>
@@ -1765,11 +1765,8 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -1779,22 +1776,38 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>204</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
-        <v>210</v>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1812,12 +1825,12 @@
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="47.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1839,7 +1852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101</v>
       </c>
@@ -1850,7 +1863,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>102</v>
       </c>
@@ -1861,7 +1874,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>103</v>
       </c>
@@ -1872,7 +1885,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>104</v>
       </c>
@@ -1883,7 +1896,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -1894,7 +1907,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -1905,7 +1918,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>107</v>
       </c>
@@ -1916,7 +1929,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>108</v>
       </c>
@@ -1927,7 +1940,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>109</v>
       </c>
@@ -1938,7 +1951,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>110</v>
       </c>
@@ -1949,7 +1962,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>111</v>
       </c>
@@ -1960,7 +1973,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>112</v>
       </c>
@@ -1994,12 +2007,12 @@
       <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2021,7 +2034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201</v>
       </c>
@@ -2032,7 +2045,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>202</v>
       </c>
@@ -2043,7 +2056,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>203</v>
       </c>
@@ -2054,7 +2067,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>204</v>
       </c>
@@ -2065,7 +2078,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>205</v>
       </c>
@@ -2076,7 +2089,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>206</v>
       </c>
@@ -2087,7 +2100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>207</v>
       </c>
@@ -2098,7 +2111,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>208</v>
       </c>
@@ -2109,7 +2122,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>209</v>
       </c>
@@ -2120,7 +2133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>210</v>
       </c>
@@ -2131,7 +2144,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>211</v>
       </c>
@@ -2142,7 +2155,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>212</v>
       </c>
@@ -2153,7 +2166,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>213</v>
       </c>
@@ -2164,7 +2177,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>214</v>
       </c>
@@ -2175,7 +2188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>215</v>
       </c>
@@ -2202,9 +2215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
@@ -2221,7 +2236,7 @@
     <col min="15" max="15" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2258,13 +2273,13 @@
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2305,13 +2320,13 @@
         <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>301</v>
       </c>
@@ -2352,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>302</v>
       </c>
@@ -2399,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>303</v>
       </c>
@@ -2446,13 +2461,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>304</v>
       </c>
@@ -2493,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>305</v>
       </c>
@@ -2540,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>306</v>
       </c>
@@ -2587,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>307</v>
       </c>
@@ -2634,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>308</v>
       </c>
@@ -2681,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>309</v>
       </c>
@@ -2728,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>310</v>
       </c>
@@ -2775,13 +2790,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>311</v>
       </c>
@@ -2822,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>312</v>
       </c>
@@ -2869,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>313</v>
       </c>
@@ -2916,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>314</v>
       </c>
@@ -2945,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
@@ -2963,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>315</v>
       </c>
@@ -2992,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -3010,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>316</v>
       </c>
@@ -3057,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>317</v>
       </c>
@@ -3104,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>318</v>
       </c>
@@ -3151,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>319</v>
       </c>
@@ -3180,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
@@ -3198,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
         <v>89</v>
@@ -3234,12 +3249,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3407,15 +3419,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3439,10 +3455,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65985E2-E2A4-4703-8DB7-28303DA7875C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F0552A-9FC8-41FC-BE26-39E961247FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2216,7 +2216,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2887,7 +2887,7 @@
         <v>217</v>
       </c>
       <c r="O14" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -3249,9 +3249,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3419,19 +3422,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3455,9 +3454,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOW2_400_204\Desktop\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F0552A-9FC8-41FC-BE26-39E961247FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -665,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_ 초간 무적을 얻습니다. 무적상태가 끝나면 범위 내의 적에게 공격받은 데미지 만큼 데미지를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택한 범위 내의 적에게 _의 데미지를 주고, _초 동안 스턴시킵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -677,10 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택한 적에게 _ 의 데미지를 이번 맵에서 카드를 사용한 개수만큼 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방패 타격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,10 +700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무작위 범위에 _의 데미지를 주는 번개를 _회 소환합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Heal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,13 +866,25 @@
   </si>
   <si>
     <t>E_PointCircle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1389,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -1757,7 +1756,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B33" t="s">
         <v>89</v>
@@ -1768,10 +1767,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1779,10 +1778,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1790,10 +1789,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1801,10 +1800,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1818,7 +1817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1985,7 +1984,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B20">
+  <sortState ref="B3:B20">
     <sortCondition ref="B3:B20"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2000,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2212,12 +2211,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2262,21 +2259,21 @@
         <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2305,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -2320,10 +2317,10 @@
         <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2367,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2414,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O4" t="s">
         <v>89</v>
@@ -2461,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O5" t="s">
         <v>89</v>
@@ -2508,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O6" t="s">
         <v>89</v>
@@ -2555,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O7" t="s">
         <v>89</v>
@@ -2602,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O8" t="s">
         <v>89</v>
@@ -2649,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O9" t="s">
         <v>89</v>
@@ -2696,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O10" t="s">
         <v>89</v>
@@ -2743,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O11" t="s">
         <v>89</v>
@@ -2790,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2801,7 +2798,7 @@
         <v>311</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>158</v>
@@ -2813,13 +2810,13 @@
         <v>159</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -2837,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O13" t="s">
         <v>89</v>
@@ -2848,25 +2845,25 @@
         <v>312</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
         <v>160</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G14" s="4">
         <v>3</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
@@ -2884,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2895,7 +2892,7 @@
         <v>313</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>161</v>
@@ -2907,13 +2904,13 @@
         <v>162</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G15" s="4">
         <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -2931,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2942,7 +2939,7 @@
         <v>314</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>163</v>
@@ -2951,16 +2948,16 @@
         <v>119</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
@@ -2978,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O16" t="s">
         <v>89</v>
@@ -2989,7 +2986,7 @@
         <v>315</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>164</v>
@@ -2998,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -3025,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="O17" t="s">
         <v>215</v>
-      </c>
-      <c r="O17" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -3036,25 +3033,25 @@
         <v>316</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -3072,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -3083,25 +3080,25 @@
         <v>317</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
         <v>119</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -3119,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s">
         <v>89</v>
@@ -3130,25 +3127,25 @@
         <v>318</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
         <v>118</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -3166,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s">
         <v>89</v>
@@ -3177,25 +3174,25 @@
         <v>319</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
@@ -3213,14 +3210,14 @@
         <v>0</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O21" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K11">
+  <sortState ref="A3:K11">
     <sortCondition ref="A3:A11"/>
   </sortState>
   <mergeCells count="2">
@@ -3249,12 +3246,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3422,15 +3416,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3454,10 +3452,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/CardTable.xlsx
+++ b/Project_C/Assets/ExcelTable/CardTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOW2_400_204\Desktop\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\졸작\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA55CCE-BFEF-4567-9CEC-4E0362B2D4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="266">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,15 +878,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미구현</t>
+    <t>검기</t>
+  </si>
+  <si>
+    <t>검의 가르침</t>
+  </si>
+  <si>
+    <t>검술 단련</t>
+  </si>
+  <si>
+    <t>검기의 경지</t>
+  </si>
+  <si>
+    <t>수련의 결과</t>
+  </si>
+  <si>
+    <t>복기</t>
+  </si>
+  <si>
+    <t>잔재 폭발</t>
+  </si>
+  <si>
+    <t>검기난무</t>
+  </si>
+  <si>
+    <t>노력의 보상</t>
+  </si>
+  <si>
+    <t>천검 소환</t>
+  </si>
+  <si>
+    <t>재활용</t>
+  </si>
+  <si>
+    <t>범위 내 적에게 _의 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검기'카드를 _장 손에 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 데미지를 _ 줄 때 마다, '검기'카드를 손에 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패가 10장이 될 때 까지 '검기'카드를 손에 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검기'의 데미지를 _강화합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 이번 맵에서 소모한 '검기'카드의 수 만큼 '검기'의 데미지를 _ 강화합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 적에게 내가 이번 테마던전에서 소모한 '검기'카드의 수 만큼 _의 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 적에게 내가 이번 맵에서 소모한 카드의 수 만큼 _의 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 테마던전에서 소모한 '검기'카드의 수 만큼 _의 데미지를 주는 무작위 범위를 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패에 있는 '검기'카드를 모두 소모합니다. 소모한 '검기'카드의 수만큼, 무작위 적에게 _의 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 맵에서 사용한 '검기'카드의 수 만큼, 덱에 무작위 카드를 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무작위 패 한 장을 버립니다. 이번 맵에서 소모한 코스트의 절반을 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordTeaching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordTraining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordUseUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordBoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordSpwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordDance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSwordTokenAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSwordTeachingAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_card_destroy</t>
+  </si>
+  <si>
+    <t>검기생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검기강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSwordMaxAction</t>
+  </si>
+  <si>
+    <t>PlayerSwordTrainingAction</t>
+  </si>
+  <si>
+    <t>PlayerNoneAction</t>
+  </si>
+  <si>
+    <t>PlayerSwordBoomAction</t>
+  </si>
+  <si>
+    <t>PlayerSwordDanceAction</t>
+  </si>
+  <si>
+    <t>PlayerSwordRewardAction</t>
+  </si>
+  <si>
+    <t>PlayerRecycleAction</t>
+  </si>
+  <si>
+    <t>PlayerCardUseAttackAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,8 +1067,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -915,37 +1089,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -956,20 +1110,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -981,50 +1126,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <left style="thin">
@@ -1388,21 +1512,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1413,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1424,7 +1548,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1435,7 +1559,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1446,7 +1570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1457,7 +1581,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1468,7 +1592,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1479,7 +1603,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1490,7 +1614,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1501,7 +1625,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1512,7 +1636,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1523,7 +1647,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1534,7 +1658,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1545,7 +1669,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -1556,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1567,7 +1691,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1578,7 +1702,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1589,7 +1713,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1600,7 +1724,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1611,7 +1735,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1622,7 +1746,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1633,7 +1757,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1644,7 +1768,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1655,7 +1779,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1666,7 +1790,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1677,7 +1801,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1688,7 +1812,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1699,7 +1823,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1710,7 +1834,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1721,7 +1845,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1732,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -1743,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -1754,7 +1878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>201</v>
       </c>
@@ -1765,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>201</v>
       </c>
@@ -1776,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -1787,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>201</v>
       </c>
@@ -1798,7 +1922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -1817,19 +1941,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="47.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1840,18 +1964,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>101</v>
       </c>
@@ -1862,7 +1986,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>102</v>
       </c>
@@ -1873,7 +1997,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>103</v>
       </c>
@@ -1884,7 +2008,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>104</v>
       </c>
@@ -1895,7 +2019,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>105</v>
       </c>
@@ -1906,7 +2030,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>106</v>
       </c>
@@ -1917,7 +2041,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>107</v>
       </c>
@@ -1928,7 +2052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>108</v>
       </c>
@@ -1939,7 +2063,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>109</v>
       </c>
@@ -1950,7 +2074,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>110</v>
       </c>
@@ -1961,7 +2085,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>111</v>
       </c>
@@ -1972,7 +2096,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>112</v>
       </c>
@@ -1984,12 +2108,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:B20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B20">
     <sortCondition ref="B3:B20"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1999,19 +2123,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2022,18 +2144,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>201</v>
       </c>
@@ -2044,7 +2166,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>202</v>
       </c>
@@ -2055,7 +2177,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>203</v>
       </c>
@@ -2066,7 +2188,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>204</v>
       </c>
@@ -2077,7 +2199,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>205</v>
       </c>
@@ -2088,7 +2210,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>206</v>
       </c>
@@ -2099,7 +2221,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>207</v>
       </c>
@@ -2110,7 +2232,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>208</v>
       </c>
@@ -2121,7 +2243,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>209</v>
       </c>
@@ -2132,7 +2254,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>210</v>
       </c>
@@ -2143,7 +2265,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>211</v>
       </c>
@@ -2154,7 +2276,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>212</v>
       </c>
@@ -2165,7 +2287,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>213</v>
       </c>
@@ -2176,7 +2298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>214</v>
       </c>
@@ -2187,7 +2309,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>215</v>
       </c>
@@ -2196,12 +2318,34 @@
       </c>
       <c r="C17" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A18">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A19">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2211,1013 +2355,1533 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A3" s="4">
         <v>301</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>80</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="b">
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A4" s="4">
         <v>302</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>50</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="b">
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A5" s="4">
         <v>303</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>100</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A6" s="4">
         <v>304</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>60</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>20</v>
       </c>
-      <c r="L6" s="1" t="b">
+      <c r="L6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="s">
+      <c r="M6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A7" s="4">
         <v>305</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>5</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>0.3</v>
       </c>
-      <c r="L7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="s">
+      <c r="L7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A8" s="4">
         <v>306</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="s">
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A9" s="4">
         <v>307</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="s">
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A10" s="4">
         <v>308</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>0.3</v>
       </c>
-      <c r="L10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="s">
+      <c r="L10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A11" s="4">
         <v>309</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>3</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>3</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7" t="s">
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A12" s="2">
         <v>310</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>200</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="b">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7" t="s">
+      <c r="M12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A13" s="2">
         <v>311</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>50</v>
       </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7" t="s">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A14" s="2">
         <v>312</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>3</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>100</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>3</v>
       </c>
-      <c r="L14" s="1" t="b">
+      <c r="L14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7" t="s">
+      <c r="M14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A15" s="2">
         <v>313</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>4</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="s">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A16" s="2">
         <v>314</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>50</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A17" s="2">
+        <v>315</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A18" s="2">
+        <v>316</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A19" s="2">
+        <v>317</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>100</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A20" s="2">
+        <v>318</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A21" s="2">
+        <v>319</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>150</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3</v>
+      </c>
+      <c r="L21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A22" s="2">
+        <v>320</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
         <v>50</v>
       </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1" t="b">
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7" t="s">
+      <c r="M22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A23" s="2">
+        <v>321</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O23" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>315</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="24" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="7">
+        <v>322</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
         <v>200</v>
       </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A25" s="2">
+        <v>323</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="7">
+        <v>324</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I26" s="7">
         <v>1</v>
       </c>
-      <c r="J17" s="4">
-        <v>3</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="O17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>316</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="J26" s="7">
+        <v>30</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="7">
+        <v>325</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="4">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="O18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>317</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E27" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A28" s="2">
+        <v>326</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" s="4">
-        <v>3</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="E28" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" s="2">
         <v>1</v>
       </c>
-      <c r="J19" s="4">
-        <v>100</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="b">
+      <c r="J28" s="2">
+        <v>30</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7" t="s">
+      <c r="M28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O28" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>318</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="29" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="7">
+        <v>327</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="E29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I29" s="7">
         <v>1</v>
       </c>
-      <c r="J20" s="4">
-        <v>30</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7" t="s">
+      <c r="J29" s="7">
+        <v>150</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O29" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>319</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="30" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="7">
+        <v>328</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
         <v>150</v>
       </c>
-      <c r="K21" s="5">
-        <v>3</v>
-      </c>
-      <c r="L21" s="1" t="b">
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="M21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="M30" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O30" s="7" t="s">
         <v>89</v>
       </c>
     </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A31" s="2">
+        <v>329</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="7">
+        <v>330</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:K11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K11">
     <sortCondition ref="A3:A11"/>
   </sortState>
   <mergeCells count="2">
@@ -3225,17 +3889,7 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2 A1:K1 C2:K2 A3:K1048576 L1:N1048576">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$A2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O21">
+  <conditionalFormatting sqref="A1:O1048576">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
@@ -3246,12 +3900,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010015C4E6E158ECAA418C6B952D1FB9372F" ma:contentTypeVersion="7" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4bbe8cf3ddc823bb2b9b04ca0b6d785f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ba0c99f-4851-42f8-a44c-096a750684f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76ccdb2f795e672dc5e711efdcf336c8" ns2:_="">
     <xsd:import namespace="0ba0c99f-4851-42f8-a44c-096a750684f0"/>
@@ -3415,6 +4063,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3425,15 +4079,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA77AE4-4BF9-49E4-9E51-356D8E79B84B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3451,6 +4096,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
   <ds:schemaRefs>
